--- a/US/data/CBS/NFIB/Actual Price Changes.xlsx
+++ b/US/data/CBS/NFIB/Actual Price Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8788EDF-5F50-4E74-9902-CD0437BC8D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8310EB-442B-4314-AF3D-5B203075DB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="3600" windowWidth="14145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="498">
   <si>
     <t>Month/Year</t>
   </si>
@@ -31,816 +31,816 @@
     <t>1986/1/1</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1986/2/1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1986/3/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+  </si>
+  <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
+    <t>1989/5/1</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1989/6/1</t>
+  </si>
+  <si>
+    <t>1989/7/1</t>
+  </si>
+  <si>
+    <t>1989/8/1</t>
+  </si>
+  <si>
+    <t>1989/9/1</t>
+  </si>
+  <si>
+    <t>1989/10/1</t>
+  </si>
+  <si>
+    <t>1989/11/1</t>
+  </si>
+  <si>
+    <t>1989/12/1</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>1986/2/1</t>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>1986/3/1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1987/1/1</t>
-  </si>
-  <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
+    <t>2004/11/1</t>
+  </si>
+  <si>
+    <t>2004/12/1</t>
+  </si>
+  <si>
+    <t>2005/1/1</t>
+  </si>
+  <si>
+    <t>2005/2/1</t>
+  </si>
+  <si>
+    <t>2005/3/1</t>
+  </si>
+  <si>
+    <t>2005/4/1</t>
+  </si>
+  <si>
+    <t>2005/5/1</t>
+  </si>
+  <si>
+    <t>2005/6/1</t>
+  </si>
+  <si>
+    <t>2005/7/1</t>
+  </si>
+  <si>
+    <t>2005/8/1</t>
+  </si>
+  <si>
+    <t>2005/9/1</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>2005/11/1</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
-    <t>1989/6/1</t>
-  </si>
-  <si>
-    <t>1989/7/1</t>
-  </si>
-  <si>
-    <t>1989/8/1</t>
-  </si>
-  <si>
-    <t>1989/9/1</t>
-  </si>
-  <si>
-    <t>1989/10/1</t>
-  </si>
-  <si>
-    <t>1989/11/1</t>
-  </si>
-  <si>
-    <t>1989/12/1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
-    <t>2004/11/1</t>
-  </si>
-  <si>
-    <t>2004/12/1</t>
-  </si>
-  <si>
-    <t>2005/1/1</t>
-  </si>
-  <si>
-    <t>2005/2/1</t>
-  </si>
-  <si>
-    <t>2005/3/1</t>
-  </si>
-  <si>
-    <t>2005/4/1</t>
-  </si>
-  <si>
-    <t>2005/5/1</t>
-  </si>
-  <si>
-    <t>2005/6/1</t>
-  </si>
-  <si>
-    <t>2005/7/1</t>
-  </si>
-  <si>
-    <t>2005/8/1</t>
-  </si>
-  <si>
-    <t>2005/9/1</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>2005/11/1</t>
-  </si>
-  <si>
     <t>2005/12/1</t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <t>2008/7/1</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>2008/8/1</t>
@@ -958,465 +958,465 @@
     <t>2009/1/1</t>
   </si>
   <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
     <t>-11</t>
   </si>
   <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
+    <t>2010/12/1</t>
+  </si>
+  <si>
+    <t>2011/1/1</t>
+  </si>
+  <si>
+    <t>2011/2/1</t>
+  </si>
+  <si>
+    <t>2011/3/1</t>
+  </si>
+  <si>
+    <t>2011/4/1</t>
+  </si>
+  <si>
+    <t>2011/5/1</t>
+  </si>
+  <si>
+    <t>2011/6/1</t>
+  </si>
+  <si>
+    <t>2011/7/1</t>
+  </si>
+  <si>
+    <t>2011/8/1</t>
+  </si>
+  <si>
+    <t>2011/9/1</t>
+  </si>
+  <si>
+    <t>2011/10/1</t>
+  </si>
+  <si>
+    <t>2011/11/1</t>
+  </si>
+  <si>
+    <t>2011/12/1</t>
+  </si>
+  <si>
+    <t>2012/1/1</t>
+  </si>
+  <si>
+    <t>2012/2/1</t>
+  </si>
+  <si>
+    <t>2012/3/1</t>
+  </si>
+  <si>
+    <t>2012/4/1</t>
+  </si>
+  <si>
+    <t>2012/5/1</t>
+  </si>
+  <si>
+    <t>2012/6/1</t>
+  </si>
+  <si>
+    <t>2012/7/1</t>
+  </si>
+  <si>
+    <t>2012/8/1</t>
+  </si>
+  <si>
+    <t>2012/9/1</t>
+  </si>
+  <si>
+    <t>2012/10/1</t>
+  </si>
+  <si>
+    <t>2012/11/1</t>
+  </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2013/1/1</t>
+  </si>
+  <si>
+    <t>2013/2/1</t>
+  </si>
+  <si>
+    <t>2013/3/1</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>2013/5/1</t>
+  </si>
+  <si>
+    <t>2013/6/1</t>
+  </si>
+  <si>
+    <t>2013/7/1</t>
+  </si>
+  <si>
+    <t>2013/8/1</t>
+  </si>
+  <si>
+    <t>2013/9/1</t>
+  </si>
+  <si>
+    <t>2013/10/1</t>
+  </si>
+  <si>
+    <t>2013/11/1</t>
+  </si>
+  <si>
+    <t>2013/12/1</t>
+  </si>
+  <si>
+    <t>2014/1/1</t>
+  </si>
+  <si>
+    <t>2014/2/1</t>
+  </si>
+  <si>
+    <t>2014/3/1</t>
+  </si>
+  <si>
+    <t>2014/4/1</t>
+  </si>
+  <si>
+    <t>2014/5/1</t>
+  </si>
+  <si>
+    <t>2014/6/1</t>
+  </si>
+  <si>
+    <t>2014/7/1</t>
+  </si>
+  <si>
+    <t>2014/8/1</t>
+  </si>
+  <si>
+    <t>2014/9/1</t>
+  </si>
+  <si>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2014/11/1</t>
+  </si>
+  <si>
+    <t>2014/12/1</t>
+  </si>
+  <si>
+    <t>2015/1/1</t>
+  </si>
+  <si>
+    <t>2015/2/1</t>
+  </si>
+  <si>
+    <t>2015/3/1</t>
+  </si>
+  <si>
+    <t>2015/4/1</t>
+  </si>
+  <si>
+    <t>2015/5/1</t>
+  </si>
+  <si>
+    <t>2015/6/1</t>
+  </si>
+  <si>
+    <t>2015/7/1</t>
+  </si>
+  <si>
+    <t>2015/8/1</t>
+  </si>
+  <si>
+    <t>2015/9/1</t>
+  </si>
+  <si>
+    <t>2015/10/1</t>
+  </si>
+  <si>
+    <t>2015/11/1</t>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+  </si>
+  <si>
+    <t>2016/1/1</t>
+  </si>
+  <si>
+    <t>2016/2/1</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>2016/3/1</t>
+  </si>
+  <si>
+    <t>2016/4/1</t>
+  </si>
+  <si>
+    <t>2016/5/1</t>
+  </si>
+  <si>
+    <t>2016/6/1</t>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+  </si>
+  <si>
+    <t>2016/8/1</t>
+  </si>
+  <si>
+    <t>2016/9/1</t>
+  </si>
+  <si>
+    <t>2016/10/1</t>
+  </si>
+  <si>
+    <t>2016/11/1</t>
+  </si>
+  <si>
+    <t>2016/12/1</t>
+  </si>
+  <si>
+    <t>2017/1/1</t>
+  </si>
+  <si>
+    <t>2017/2/1</t>
+  </si>
+  <si>
+    <t>2017/3/1</t>
+  </si>
+  <si>
+    <t>2017/4/1</t>
+  </si>
+  <si>
+    <t>2017/5/1</t>
+  </si>
+  <si>
+    <t>2017/6/1</t>
+  </si>
+  <si>
+    <t>2017/7/1</t>
+  </si>
+  <si>
+    <t>2017/8/1</t>
+  </si>
+  <si>
+    <t>2017/9/1</t>
+  </si>
+  <si>
+    <t>2017/10/1</t>
+  </si>
+  <si>
+    <t>2017/11/1</t>
+  </si>
+  <si>
+    <t>2017/12/1</t>
+  </si>
+  <si>
+    <t>2018/1/1</t>
+  </si>
+  <si>
+    <t>2018/2/1</t>
+  </si>
+  <si>
+    <t>2018/3/1</t>
+  </si>
+  <si>
+    <t>2018/4/1</t>
+  </si>
+  <si>
+    <t>2018/5/1</t>
+  </si>
+  <si>
+    <t>2018/6/1</t>
+  </si>
+  <si>
+    <t>2018/7/1</t>
+  </si>
+  <si>
+    <t>2018/8/1</t>
+  </si>
+  <si>
+    <t>2018/9/1</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
+    <t>2018/11/1</t>
+  </si>
+  <si>
+    <t>2018/12/1</t>
+  </si>
+  <si>
+    <t>2019/1/1</t>
+  </si>
+  <si>
+    <t>2019/2/1</t>
+  </si>
+  <si>
+    <t>2019/3/1</t>
+  </si>
+  <si>
+    <t>2019/4/1</t>
+  </si>
+  <si>
+    <t>2019/5/1</t>
+  </si>
+  <si>
+    <t>2019/6/1</t>
+  </si>
+  <si>
+    <t>2019/7/1</t>
+  </si>
+  <si>
+    <t>2019/8/1</t>
+  </si>
+  <si>
+    <t>2019/9/1</t>
+  </si>
+  <si>
+    <t>2019/10/1</t>
+  </si>
+  <si>
+    <t>2019/11/1</t>
+  </si>
+  <si>
+    <t>2019/12/1</t>
+  </si>
+  <si>
+    <t>2020/1/1</t>
+  </si>
+  <si>
+    <t>2020/2/1</t>
+  </si>
+  <si>
+    <t>2020/3/1</t>
+  </si>
+  <si>
+    <t>2020/4/1</t>
+  </si>
+  <si>
+    <t>2020/5/1</t>
   </si>
   <si>
     <t>-13</t>
   </si>
   <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
-    <t>2010/12/1</t>
-  </si>
-  <si>
-    <t>2011/1/1</t>
-  </si>
-  <si>
-    <t>2011/2/1</t>
-  </si>
-  <si>
-    <t>2011/3/1</t>
-  </si>
-  <si>
-    <t>2011/4/1</t>
-  </si>
-  <si>
-    <t>2011/5/1</t>
-  </si>
-  <si>
-    <t>2011/6/1</t>
-  </si>
-  <si>
-    <t>2011/7/1</t>
-  </si>
-  <si>
-    <t>2011/8/1</t>
-  </si>
-  <si>
-    <t>2011/9/1</t>
-  </si>
-  <si>
-    <t>2011/10/1</t>
-  </si>
-  <si>
-    <t>2011/11/1</t>
-  </si>
-  <si>
-    <t>2011/12/1</t>
-  </si>
-  <si>
-    <t>2012/1/1</t>
-  </si>
-  <si>
-    <t>2012/2/1</t>
-  </si>
-  <si>
-    <t>2012/3/1</t>
-  </si>
-  <si>
-    <t>2012/4/1</t>
-  </si>
-  <si>
-    <t>2012/5/1</t>
-  </si>
-  <si>
-    <t>2012/6/1</t>
-  </si>
-  <si>
-    <t>2012/7/1</t>
-  </si>
-  <si>
-    <t>2012/8/1</t>
-  </si>
-  <si>
-    <t>2012/9/1</t>
-  </si>
-  <si>
-    <t>2012/10/1</t>
-  </si>
-  <si>
-    <t>2012/11/1</t>
-  </si>
-  <si>
-    <t>2012/12/1</t>
-  </si>
-  <si>
-    <t>2013/1/1</t>
-  </si>
-  <si>
-    <t>2013/2/1</t>
-  </si>
-  <si>
-    <t>2013/3/1</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>2013/5/1</t>
-  </si>
-  <si>
-    <t>2013/6/1</t>
-  </si>
-  <si>
-    <t>2013/7/1</t>
-  </si>
-  <si>
-    <t>2013/8/1</t>
-  </si>
-  <si>
-    <t>2013/9/1</t>
-  </si>
-  <si>
-    <t>2013/10/1</t>
-  </si>
-  <si>
-    <t>2013/11/1</t>
-  </si>
-  <si>
-    <t>2013/12/1</t>
-  </si>
-  <si>
-    <t>2014/1/1</t>
-  </si>
-  <si>
-    <t>2014/2/1</t>
-  </si>
-  <si>
-    <t>2014/3/1</t>
-  </si>
-  <si>
-    <t>2014/4/1</t>
-  </si>
-  <si>
-    <t>2014/5/1</t>
-  </si>
-  <si>
-    <t>2014/6/1</t>
-  </si>
-  <si>
-    <t>2014/7/1</t>
-  </si>
-  <si>
-    <t>2014/8/1</t>
-  </si>
-  <si>
-    <t>2014/9/1</t>
-  </si>
-  <si>
-    <t>2014/10/1</t>
-  </si>
-  <si>
-    <t>2014/11/1</t>
-  </si>
-  <si>
-    <t>2014/12/1</t>
-  </si>
-  <si>
-    <t>2015/1/1</t>
-  </si>
-  <si>
-    <t>2015/2/1</t>
-  </si>
-  <si>
-    <t>2015/3/1</t>
-  </si>
-  <si>
-    <t>2015/4/1</t>
-  </si>
-  <si>
-    <t>2015/5/1</t>
-  </si>
-  <si>
-    <t>2015/6/1</t>
-  </si>
-  <si>
-    <t>2015/7/1</t>
-  </si>
-  <si>
-    <t>2015/8/1</t>
-  </si>
-  <si>
-    <t>2015/9/1</t>
-  </si>
-  <si>
-    <t>2015/10/1</t>
-  </si>
-  <si>
-    <t>2015/11/1</t>
-  </si>
-  <si>
-    <t>2015/12/1</t>
-  </si>
-  <si>
-    <t>2016/1/1</t>
-  </si>
-  <si>
-    <t>2016/2/1</t>
-  </si>
-  <si>
-    <t>2016/3/1</t>
-  </si>
-  <si>
-    <t>2016/4/1</t>
-  </si>
-  <si>
-    <t>2016/5/1</t>
-  </si>
-  <si>
-    <t>2016/6/1</t>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-  </si>
-  <si>
-    <t>2016/8/1</t>
-  </si>
-  <si>
-    <t>2016/9/1</t>
-  </si>
-  <si>
-    <t>2016/10/1</t>
-  </si>
-  <si>
-    <t>2016/11/1</t>
-  </si>
-  <si>
-    <t>2016/12/1</t>
-  </si>
-  <si>
-    <t>2017/1/1</t>
-  </si>
-  <si>
-    <t>2017/2/1</t>
-  </si>
-  <si>
-    <t>2017/3/1</t>
-  </si>
-  <si>
-    <t>2017/4/1</t>
-  </si>
-  <si>
-    <t>2017/5/1</t>
-  </si>
-  <si>
-    <t>2017/6/1</t>
-  </si>
-  <si>
-    <t>2017/7/1</t>
-  </si>
-  <si>
-    <t>2017/8/1</t>
-  </si>
-  <si>
-    <t>2017/9/1</t>
-  </si>
-  <si>
-    <t>2017/10/1</t>
-  </si>
-  <si>
-    <t>2017/11/1</t>
-  </si>
-  <si>
-    <t>2017/12/1</t>
-  </si>
-  <si>
-    <t>2018/1/1</t>
-  </si>
-  <si>
-    <t>2018/2/1</t>
-  </si>
-  <si>
-    <t>2018/3/1</t>
-  </si>
-  <si>
-    <t>2018/4/1</t>
-  </si>
-  <si>
-    <t>2018/5/1</t>
-  </si>
-  <si>
-    <t>2018/6/1</t>
-  </si>
-  <si>
-    <t>2018/7/1</t>
-  </si>
-  <si>
-    <t>2018/8/1</t>
-  </si>
-  <si>
-    <t>2018/9/1</t>
-  </si>
-  <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
-    <t>2018/11/1</t>
-  </si>
-  <si>
-    <t>2018/12/1</t>
-  </si>
-  <si>
-    <t>2019/1/1</t>
-  </si>
-  <si>
-    <t>2019/2/1</t>
-  </si>
-  <si>
-    <t>2019/3/1</t>
-  </si>
-  <si>
-    <t>2019/4/1</t>
-  </si>
-  <si>
-    <t>2019/5/1</t>
-  </si>
-  <si>
-    <t>2019/6/1</t>
-  </si>
-  <si>
-    <t>2019/7/1</t>
-  </si>
-  <si>
-    <t>2019/8/1</t>
-  </si>
-  <si>
-    <t>2019/9/1</t>
-  </si>
-  <si>
-    <t>2019/10/1</t>
-  </si>
-  <si>
-    <t>2019/11/1</t>
-  </si>
-  <si>
-    <t>2019/12/1</t>
-  </si>
-  <si>
-    <t>2020/1/1</t>
-  </si>
-  <si>
-    <t>2020/2/1</t>
-  </si>
-  <si>
-    <t>2020/3/1</t>
-  </si>
-  <si>
-    <t>2020/4/1</t>
-  </si>
-  <si>
-    <t>2020/5/1</t>
-  </si>
-  <si>
     <t>2020/6/1</t>
   </si>
   <si>
-    <t>-5</t>
-  </si>
-  <si>
     <t>2020/7/1</t>
   </si>
   <si>
@@ -1453,7 +1453,7 @@
     <t>2021/5/1</t>
   </si>
   <si>
-    <t>40</t>
+    <t>41</t>
   </si>
   <si>
     <t>2021/6/1</t>
@@ -1465,19 +1465,28 @@
     <t>2021/7/1</t>
   </si>
   <si>
+    <t>2021/8/1</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
-    <t>2021/8/1</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>2021/10/1</t>
   </si>
   <si>
-    <t>52</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>2021/12/1</t>
@@ -1486,10 +1495,25 @@
     <t>57</t>
   </si>
   <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>2022/2/1</t>
   </si>
   <si>
-    <t>64</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1946,20 +1970,20 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1967,26 +1991,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,12 +2026,12 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2015,7 +2039,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -2023,7 +2047,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -2031,127 +2055,127 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
@@ -2159,71 +2183,71 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
@@ -2231,207 +2255,207 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
@@ -2439,7 +2463,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -2447,23 +2471,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -2471,47 +2495,47 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
         <v>97</v>
-      </c>
-      <c r="B72" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -2519,31 +2543,31 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -2551,7 +2575,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
@@ -2559,39 +2583,39 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2599,63 +2623,63 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>19</v>
@@ -2663,7 +2687,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
@@ -2671,31 +2695,31 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2703,15 +2727,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
         <v>19</v>
@@ -2719,215 +2743,215 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
@@ -2935,87 +2959,87 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
@@ -3023,23 +3047,23 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" t="s">
         <v>19</v>
@@ -3047,7 +3071,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
@@ -3055,23 +3079,23 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3079,10 +3103,10 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" t="s">
         <v>177</v>
-      </c>
-      <c r="B148" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3114,7 @@
         <v>178</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3122,7 @@
         <v>179</v>
       </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3130,7 @@
         <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3114,7 +3138,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,39 +3146,39 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B155" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B157" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3162,7 +3186,7 @@
         <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3170,7 +3194,7 @@
         <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3178,7 +3202,7 @@
         <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3210,7 @@
         <v>191</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,7 +3218,7 @@
         <v>192</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3202,7 +3226,7 @@
         <v>193</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3234,7 @@
         <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3226,7 +3250,7 @@
         <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,7 +3258,7 @@
         <v>197</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3274,7 @@
         <v>199</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3282,7 @@
         <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,7 +3298,7 @@
         <v>202</v>
       </c>
       <c r="B172" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3282,7 +3306,7 @@
         <v>203</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3290,7 +3314,7 @@
         <v>204</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,7 +3322,7 @@
         <v>205</v>
       </c>
       <c r="B175" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3330,7 @@
         <v>206</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3338,7 @@
         <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3346,7 @@
         <v>208</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3354,7 @@
         <v>209</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3338,7 +3362,7 @@
         <v>210</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3346,7 +3370,7 @@
         <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3378,7 @@
         <v>212</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3394,7 @@
         <v>214</v>
       </c>
       <c r="B184" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3402,7 @@
         <v>215</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3386,7 +3410,7 @@
         <v>216</v>
       </c>
       <c r="B186" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3418,7 @@
         <v>217</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3434,7 @@
         <v>219</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,7 +3442,7 @@
         <v>220</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3450,7 @@
         <v>221</v>
       </c>
       <c r="B191" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3466,7 @@
         <v>224</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,7 +3474,7 @@
         <v>225</v>
       </c>
       <c r="B194" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3458,7 +3482,7 @@
         <v>226</v>
       </c>
       <c r="B195" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3490,7 @@
         <v>227</v>
       </c>
       <c r="B196" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,7 +3498,7 @@
         <v>228</v>
       </c>
       <c r="B197" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3482,7 +3506,7 @@
         <v>229</v>
       </c>
       <c r="B198" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3490,7 +3514,7 @@
         <v>230</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3522,7 @@
         <v>231</v>
       </c>
       <c r="B200" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3530,7 @@
         <v>232</v>
       </c>
       <c r="B201" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +3538,7 @@
         <v>233</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3522,7 +3546,7 @@
         <v>234</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3530,7 +3554,7 @@
         <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,7 +3562,7 @@
         <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3570,7 @@
         <v>237</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,7 +3578,7 @@
         <v>238</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,7 +3586,7 @@
         <v>239</v>
       </c>
       <c r="B208" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3570,7 +3594,7 @@
         <v>240</v>
       </c>
       <c r="B209" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3578,7 +3602,7 @@
         <v>241</v>
       </c>
       <c r="B210" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3610,7 @@
         <v>242</v>
       </c>
       <c r="B211" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,7 +3618,7 @@
         <v>243</v>
       </c>
       <c r="B212" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3602,7 +3626,7 @@
         <v>244</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,7 +3634,7 @@
         <v>245</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3642,7 @@
         <v>246</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3626,7 +3650,7 @@
         <v>247</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3658,7 @@
         <v>248</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3666,7 @@
         <v>249</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3650,7 +3674,7 @@
         <v>250</v>
       </c>
       <c r="B219" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +3682,7 @@
         <v>251</v>
       </c>
       <c r="B220" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,7 +3690,7 @@
         <v>252</v>
       </c>
       <c r="B221" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3698,7 @@
         <v>253</v>
       </c>
       <c r="B222" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,12 +3706,12 @@
         <v>254</v>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B224" t="s">
         <v>47</v>
@@ -3695,23 +3719,23 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B225" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B226" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B227" t="s">
         <v>47</v>
@@ -3719,7 +3743,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B228" t="s">
         <v>47</v>
@@ -3727,63 +3751,63 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B230" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B231" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B232" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B234" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B236" t="s">
         <v>47</v>
@@ -3791,34 +3815,34 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B237" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B238" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B239" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>271</v>
+      </c>
+      <c r="B240" t="s">
         <v>272</v>
-      </c>
-      <c r="B240" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,7 +3850,7 @@
         <v>273</v>
       </c>
       <c r="B241" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3858,7 @@
         <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3866,7 @@
         <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +3874,7 @@
         <v>276</v>
       </c>
       <c r="B244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3858,7 +3882,7 @@
         <v>277</v>
       </c>
       <c r="B245" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +3890,7 @@
         <v>278</v>
       </c>
       <c r="B246" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +3898,7 @@
         <v>279</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +3906,7 @@
         <v>280</v>
       </c>
       <c r="B248" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +3914,7 @@
         <v>281</v>
       </c>
       <c r="B249" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,7 +3922,7 @@
         <v>282</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3930,7 @@
         <v>283</v>
       </c>
       <c r="B251" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3938,7 @@
         <v>284</v>
       </c>
       <c r="B252" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3946,7 @@
         <v>285</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3954,7 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3962,7 @@
         <v>287</v>
       </c>
       <c r="B255" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3970,7 @@
         <v>288</v>
       </c>
       <c r="B256" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3978,7 @@
         <v>289</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3986,7 @@
         <v>290</v>
       </c>
       <c r="B258" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +3994,7 @@
         <v>291</v>
       </c>
       <c r="B259" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +4002,7 @@
         <v>292</v>
       </c>
       <c r="B260" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +4010,7 @@
         <v>293</v>
       </c>
       <c r="B261" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +4018,7 @@
         <v>294</v>
       </c>
       <c r="B262" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4026,7 @@
         <v>295</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4034,7 @@
         <v>296</v>
       </c>
       <c r="B264" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4042,7 @@
         <v>297</v>
       </c>
       <c r="B265" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4050,7 @@
         <v>298</v>
       </c>
       <c r="B266" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4058,7 @@
         <v>299</v>
       </c>
       <c r="B267" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4066,7 @@
         <v>300</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4074,7 @@
         <v>301</v>
       </c>
       <c r="B269" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4082,7 @@
         <v>302</v>
       </c>
       <c r="B270" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4066,7 +4090,7 @@
         <v>303</v>
       </c>
       <c r="B271" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,7 +4114,7 @@
         <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4098,7 +4122,7 @@
         <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4106,7 +4130,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4114,7 +4138,7 @@
         <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4170,7 +4194,7 @@
         <v>323</v>
       </c>
       <c r="B284" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4178,71 +4202,71 @@
         <v>324</v>
       </c>
       <c r="B285" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B286" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B287" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B288" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B289" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B290" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B291" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B292" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B293" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4250,7 +4274,7 @@
         <v>338</v>
       </c>
       <c r="B294" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4258,44 +4282,44 @@
         <v>339</v>
       </c>
       <c r="B295" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B296" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B297" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B298" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>345</v>
+      </c>
+      <c r="B299" t="s">
         <v>346</v>
-      </c>
-      <c r="B299" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B300" t="s">
         <v>223</v>
@@ -4303,23 +4327,23 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B301" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B302" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B303" t="s">
         <v>3</v>
@@ -4327,39 +4351,39 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B304" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B305" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B306" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B307" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B308" t="s">
         <v>19</v>
@@ -4367,55 +4391,55 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B309" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B310" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B311" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B312" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B314" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -4423,63 +4447,63 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B317" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B318" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B319" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B321" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B323" t="s">
         <v>13</v>
@@ -4487,47 +4511,47 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B324" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B327" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B328" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B329" t="s">
         <v>9</v>
@@ -4535,47 +4559,47 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B330" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B331" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B332" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B333" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B334" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B335" t="s">
         <v>13</v>
@@ -4583,15 +4607,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B337" t="s">
         <v>9</v>
@@ -4599,15 +4623,15 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B338" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B339" t="s">
         <v>7</v>
@@ -4615,47 +4639,47 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B340" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B341" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B343" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B344" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B345" t="s">
         <v>19</v>
@@ -4663,79 +4687,79 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B347" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B349" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B350" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B353" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B355" t="s">
         <v>9</v>
@@ -4743,7 +4767,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B356" t="s">
         <v>13</v>
@@ -4751,31 +4775,31 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B357" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B358" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B359" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B360" t="s">
         <v>13</v>
@@ -4783,26 +4807,26 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B361" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B362" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>410</v>
+      </c>
+      <c r="B363" t="s">
         <v>411</v>
-      </c>
-      <c r="B363" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4810,7 +4834,7 @@
         <v>412</v>
       </c>
       <c r="B364" t="s">
-        <v>223</v>
+        <v>411</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4818,7 +4842,7 @@
         <v>413</v>
       </c>
       <c r="B365" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4826,7 +4850,7 @@
         <v>414</v>
       </c>
       <c r="B366" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4842,7 +4866,7 @@
         <v>416</v>
       </c>
       <c r="B368" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4850,7 +4874,7 @@
         <v>417</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4858,7 +4882,7 @@
         <v>418</v>
       </c>
       <c r="B370" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4866,7 +4890,7 @@
         <v>419</v>
       </c>
       <c r="B371" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +4898,7 @@
         <v>420</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +4906,7 @@
         <v>421</v>
       </c>
       <c r="B373" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4890,7 +4914,7 @@
         <v>422</v>
       </c>
       <c r="B374" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4898,7 +4922,7 @@
         <v>423</v>
       </c>
       <c r="B375" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4906,7 +4930,7 @@
         <v>424</v>
       </c>
       <c r="B376" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4914,7 +4938,7 @@
         <v>425</v>
       </c>
       <c r="B377" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4922,7 +4946,7 @@
         <v>426</v>
       </c>
       <c r="B378" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4930,7 +4954,7 @@
         <v>427</v>
       </c>
       <c r="B379" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4938,7 +4962,7 @@
         <v>428</v>
       </c>
       <c r="B380" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4946,7 +4970,7 @@
         <v>429</v>
       </c>
       <c r="B381" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4954,7 +4978,7 @@
         <v>430</v>
       </c>
       <c r="B382" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4962,7 +4986,7 @@
         <v>431</v>
       </c>
       <c r="B383" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4970,7 +4994,7 @@
         <v>432</v>
       </c>
       <c r="B384" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4978,7 +5002,7 @@
         <v>433</v>
       </c>
       <c r="B385" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4986,7 +5010,7 @@
         <v>434</v>
       </c>
       <c r="B386" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4994,7 +5018,7 @@
         <v>435</v>
       </c>
       <c r="B387" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5002,7 +5026,7 @@
         <v>436</v>
       </c>
       <c r="B388" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5010,7 +5034,7 @@
         <v>437</v>
       </c>
       <c r="B389" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5018,7 +5042,7 @@
         <v>438</v>
       </c>
       <c r="B390" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5026,7 +5050,7 @@
         <v>439</v>
       </c>
       <c r="B391" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5034,7 +5058,7 @@
         <v>440</v>
       </c>
       <c r="B392" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5042,7 +5066,7 @@
         <v>441</v>
       </c>
       <c r="B393" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5050,7 +5074,7 @@
         <v>442</v>
       </c>
       <c r="B394" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5058,7 +5082,7 @@
         <v>443</v>
       </c>
       <c r="B395" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5066,7 +5090,7 @@
         <v>444</v>
       </c>
       <c r="B396" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5074,7 +5098,7 @@
         <v>445</v>
       </c>
       <c r="B397" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5082,7 +5106,7 @@
         <v>446</v>
       </c>
       <c r="B398" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5090,7 +5114,7 @@
         <v>447</v>
       </c>
       <c r="B399" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5098,7 +5122,7 @@
         <v>448</v>
       </c>
       <c r="B400" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5106,7 +5130,7 @@
         <v>449</v>
       </c>
       <c r="B401" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5114,7 +5138,7 @@
         <v>450</v>
       </c>
       <c r="B402" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5122,7 +5146,7 @@
         <v>451</v>
       </c>
       <c r="B403" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5130,7 +5154,7 @@
         <v>452</v>
       </c>
       <c r="B404" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5138,7 +5162,7 @@
         <v>453</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5146,7 +5170,7 @@
         <v>454</v>
       </c>
       <c r="B406" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5154,7 +5178,7 @@
         <v>455</v>
       </c>
       <c r="B407" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5162,7 +5186,7 @@
         <v>456</v>
       </c>
       <c r="B408" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5170,7 +5194,7 @@
         <v>457</v>
       </c>
       <c r="B409" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5178,7 +5202,7 @@
         <v>458</v>
       </c>
       <c r="B410" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5186,7 +5210,7 @@
         <v>459</v>
       </c>
       <c r="B411" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5194,7 +5218,7 @@
         <v>460</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5202,7 +5226,7 @@
         <v>461</v>
       </c>
       <c r="B413" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5210,15 +5234,15 @@
         <v>462</v>
       </c>
       <c r="B414" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B415" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5226,7 +5250,7 @@
         <v>465</v>
       </c>
       <c r="B416" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5234,7 +5258,7 @@
         <v>466</v>
       </c>
       <c r="B417" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5242,7 +5266,7 @@
         <v>467</v>
       </c>
       <c r="B418" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5250,7 +5274,7 @@
         <v>468</v>
       </c>
       <c r="B419" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5258,7 +5282,7 @@
         <v>469</v>
       </c>
       <c r="B420" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5266,7 +5290,7 @@
         <v>470</v>
       </c>
       <c r="B421" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5274,7 +5298,7 @@
         <v>471</v>
       </c>
       <c r="B422" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5282,7 +5306,7 @@
         <v>472</v>
       </c>
       <c r="B423" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5290,7 +5314,7 @@
         <v>473</v>
       </c>
       <c r="B424" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5322,45 +5346,84 @@
         <v>480</v>
       </c>
       <c r="B428" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>481</v>
+      </c>
+      <c r="B429" t="s">
         <v>482</v>
-      </c>
-      <c r="B429" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>483</v>
+      </c>
+      <c r="B430" t="s">
         <v>484</v>
-      </c>
-      <c r="B430" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>485</v>
+      </c>
+      <c r="B431" t="s">
         <v>486</v>
-      </c>
-      <c r="B431" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>487</v>
+      </c>
+      <c r="B432" t="s">
         <v>488</v>
       </c>
-      <c r="B432" t="s">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>489</v>
+      </c>
+      <c r="B433" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>491</v>
+      </c>
+      <c r="B434" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>493</v>
+      </c>
+      <c r="B435" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>495</v>
+      </c>
+      <c r="B436" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>497</v>
+      </c>
+      <c r="B437" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Actual Price Changes.xlsx
+++ b/US/data/CBS/NFIB/Actual Price Changes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8310EB-442B-4314-AF3D-5B203075DB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{360DE60F-DDEF-44CE-A5BE-0950E548E436}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="502">
   <si>
     <t>Month/Year</t>
   </si>
@@ -43,405 +43,405 @@
     <t>1986/3/1</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+  </si>
+  <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
+    <t>1989/5/1</t>
+  </si>
+  <si>
+    <t>1989/6/1</t>
+  </si>
+  <si>
+    <t>1989/7/1</t>
+  </si>
+  <si>
+    <t>1989/8/1</t>
+  </si>
+  <si>
+    <t>1989/9/1</t>
+  </si>
+  <si>
+    <t>1989/10/1</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1989/11/1</t>
+  </si>
+  <si>
+    <t>1989/12/1</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
-    <t>1987/1/1</t>
-  </si>
-  <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1989/6/1</t>
-  </si>
-  <si>
-    <t>1989/7/1</t>
-  </si>
-  <si>
-    <t>1989/8/1</t>
-  </si>
-  <si>
-    <t>1989/9/1</t>
-  </si>
-  <si>
-    <t>1989/10/1</t>
-  </si>
-  <si>
-    <t>1989/11/1</t>
-  </si>
-  <si>
-    <t>1989/12/1</t>
-  </si>
-  <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
     <t>1995/3/1</t>
   </si>
   <si>
@@ -553,39 +553,39 @@
     <t>1998/3/1</t>
   </si>
   <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
     <t>-2</t>
   </si>
   <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
     <t>1999/1/1</t>
   </si>
   <si>
@@ -787,6 +787,9 @@
     <t>2004/6/1</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>2004/7/1</t>
   </si>
   <si>
@@ -838,9 +841,6 @@
     <t>2005/11/1</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>2005/12/1</t>
   </si>
   <si>
@@ -970,36 +970,36 @@
     <t>2009/3/1</t>
   </si>
   <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
     <t>-24</t>
   </si>
   <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
     <t>2009/6/1</t>
   </si>
   <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
     <t>-20</t>
   </si>
   <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
     <t>2009/8/1</t>
   </si>
   <si>
-    <t>-19</t>
-  </si>
-  <si>
     <t>2009/9/1</t>
   </si>
   <si>
@@ -1039,6 +1039,9 @@
     <t>2010/5/1</t>
   </si>
   <si>
+    <t>-17</t>
+  </si>
+  <si>
     <t>2010/6/1</t>
   </si>
   <si>
@@ -1411,7 +1414,7 @@
     <t>2020/5/1</t>
   </si>
   <si>
-    <t>-13</t>
+    <t>-14</t>
   </si>
   <si>
     <t>2020/6/1</t>
@@ -1453,18 +1456,21 @@
     <t>2021/5/1</t>
   </si>
   <si>
-    <t>41</t>
+    <t>40</t>
   </si>
   <si>
     <t>2021/6/1</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2021/7/1</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
-    <t>2021/7/1</t>
-  </si>
-  <si>
     <t>2021/8/1</t>
   </si>
   <si>
@@ -1510,10 +1516,16 @@
     <t>2022/3/1</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
+  </si>
+  <si>
     <t>65</t>
-  </si>
-  <si>
-    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1970,44 +1982,44 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2015,15 +2027,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2031,7 +2043,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2039,7 +2051,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -2047,10 +2059,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2074,191 +2086,191 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2266,7 +2278,7 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2274,7 +2286,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,7 +2294,7 @@
         <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2302,7 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,79 +2310,79 @@
         <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2390,7 @@
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2398,7 @@
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2406,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2414,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2422,7 @@
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,124 +2430,124 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
         <v>96</v>
-      </c>
-      <c r="B72" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s">
         <v>100</v>
-      </c>
-      <c r="B75" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -2543,10 +2555,10 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
         <v>104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2562,7 +2574,7 @@
         <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2582,7 @@
         <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2594,7 +2606,7 @@
         <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,100 +2614,100 @@
         <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2703,26 +2715,26 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
         <v>127</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2742,7 @@
         <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2750,7 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2758,7 @@
         <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,7 +2766,7 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2774,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2782,7 @@
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2790,7 @@
         <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,31 +2798,31 @@
         <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" t="s">
         <v>139</v>
-      </c>
-      <c r="B111" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,7 +2830,7 @@
         <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,7 +2838,7 @@
         <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2834,7 +2846,7 @@
         <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2842,7 +2854,7 @@
         <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2878,7 @@
         <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +2894,7 @@
         <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +2910,7 @@
         <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +2918,7 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2914,7 +2926,7 @@
         <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +2942,7 @@
         <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,7 +2958,7 @@
         <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2954,7 +2966,7 @@
         <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +2990,7 @@
         <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +2998,7 @@
         <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +3006,7 @@
         <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +3014,7 @@
         <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3022,7 @@
         <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3038,7 @@
         <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3054,7 @@
         <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3078,7 @@
         <v>171</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3086,7 @@
         <v>172</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3102,7 @@
         <v>174</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3110,7 @@
         <v>175</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,23 +3118,23 @@
         <v>176</v>
       </c>
       <c r="B148" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150" t="s">
         <v>179</v>
-      </c>
-      <c r="B150" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,7 +3150,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,20 +3158,20 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
@@ -3167,7 +3179,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -3175,10 +3187,10 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" t="s">
         <v>187</v>
-      </c>
-      <c r="B157" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3198,7 @@
         <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,7 +3206,7 @@
         <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3202,7 +3214,7 @@
         <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3222,7 @@
         <v>191</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3230,7 @@
         <v>192</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3226,7 +3238,7 @@
         <v>193</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3242,7 +3254,7 @@
         <v>195</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3262,7 @@
         <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3278,7 @@
         <v>198</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3282,7 +3294,7 @@
         <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,7 +3310,7 @@
         <v>202</v>
       </c>
       <c r="B172" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3318,7 @@
         <v>203</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3326,7 @@
         <v>204</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3334,7 @@
         <v>205</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3342,7 @@
         <v>206</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3338,7 +3350,7 @@
         <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3346,7 +3358,7 @@
         <v>208</v>
       </c>
       <c r="B178" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3366,7 @@
         <v>209</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,7 +3374,7 @@
         <v>210</v>
       </c>
       <c r="B180" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3382,7 @@
         <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3390,7 @@
         <v>212</v>
       </c>
       <c r="B182" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3406,7 @@
         <v>214</v>
       </c>
       <c r="B184" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3414,7 @@
         <v>215</v>
       </c>
       <c r="B185" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,7 +3430,7 @@
         <v>217</v>
       </c>
       <c r="B187" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3438,7 @@
         <v>218</v>
       </c>
       <c r="B188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3454,7 @@
         <v>220</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,7 +3462,7 @@
         <v>221</v>
       </c>
       <c r="B191" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3478,7 @@
         <v>224</v>
       </c>
       <c r="B193" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,7 +3486,7 @@
         <v>225</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3490,7 +3502,7 @@
         <v>227</v>
       </c>
       <c r="B196" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3510,7 @@
         <v>228</v>
       </c>
       <c r="B197" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3518,7 @@
         <v>229</v>
       </c>
       <c r="B198" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,7 +3550,7 @@
         <v>233</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3558,7 @@
         <v>234</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,7 +3566,7 @@
         <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,7 +3574,7 @@
         <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3570,7 +3582,7 @@
         <v>237</v>
       </c>
       <c r="B206" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3578,7 +3590,7 @@
         <v>238</v>
       </c>
       <c r="B207" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3598,7 @@
         <v>239</v>
       </c>
       <c r="B208" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,7 +3606,7 @@
         <v>240</v>
       </c>
       <c r="B209" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3602,7 +3614,7 @@
         <v>241</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,7 +3622,7 @@
         <v>242</v>
       </c>
       <c r="B211" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3630,7 @@
         <v>243</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3626,7 +3638,7 @@
         <v>244</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3646,7 @@
         <v>245</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,7 +3678,7 @@
         <v>249</v>
       </c>
       <c r="B218" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3686,7 @@
         <v>250</v>
       </c>
       <c r="B219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3694,7 @@
         <v>251</v>
       </c>
       <c r="B220" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3690,7 +3702,7 @@
         <v>252</v>
       </c>
       <c r="B221" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,7 +3710,7 @@
         <v>253</v>
       </c>
       <c r="B222" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3706,143 +3718,143 @@
         <v>254</v>
       </c>
       <c r="B223" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B225" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B229" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B230" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B231" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B237" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B239" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +3862,7 @@
         <v>273</v>
       </c>
       <c r="B241" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3858,7 +3870,7 @@
         <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +3878,7 @@
         <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +3886,7 @@
         <v>276</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +3894,7 @@
         <v>277</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +3902,7 @@
         <v>278</v>
       </c>
       <c r="B246" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,7 +3910,7 @@
         <v>279</v>
       </c>
       <c r="B247" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3918,7 @@
         <v>280</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3926,7 @@
         <v>281</v>
       </c>
       <c r="B249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3934,7 @@
         <v>282</v>
       </c>
       <c r="B250" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3942,7 @@
         <v>283</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3950,7 @@
         <v>284</v>
       </c>
       <c r="B252" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3958,7 @@
         <v>285</v>
       </c>
       <c r="B253" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3966,7 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3974,7 @@
         <v>287</v>
       </c>
       <c r="B255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +3982,7 @@
         <v>288</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +3990,7 @@
         <v>289</v>
       </c>
       <c r="B257" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +3998,7 @@
         <v>290</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +4006,7 @@
         <v>291</v>
       </c>
       <c r="B259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4014,7 @@
         <v>292</v>
       </c>
       <c r="B260" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4022,7 @@
         <v>293</v>
       </c>
       <c r="B261" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4038,7 @@
         <v>295</v>
       </c>
       <c r="B263" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4046,7 @@
         <v>296</v>
       </c>
       <c r="B264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4054,7 @@
         <v>297</v>
       </c>
       <c r="B265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4062,7 @@
         <v>298</v>
       </c>
       <c r="B266" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4070,7 @@
         <v>299</v>
       </c>
       <c r="B267" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4066,7 +4078,7 @@
         <v>300</v>
       </c>
       <c r="B268" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4086,7 @@
         <v>301</v>
       </c>
       <c r="B269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4082,7 +4094,7 @@
         <v>302</v>
       </c>
       <c r="B270" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,7 +4102,7 @@
         <v>303</v>
       </c>
       <c r="B271" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4106,7 +4118,7 @@
         <v>306</v>
       </c>
       <c r="B273" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4114,7 +4126,7 @@
         <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,7 +4134,7 @@
         <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4130,7 +4142,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4194,15 +4206,15 @@
         <v>323</v>
       </c>
       <c r="B284" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B285" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,7 +4246,7 @@
         <v>332</v>
       </c>
       <c r="B289" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4250,7 +4262,7 @@
         <v>335</v>
       </c>
       <c r="B291" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4258,7 +4270,7 @@
         <v>336</v>
       </c>
       <c r="B292" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4274,20 +4286,20 @@
         <v>338</v>
       </c>
       <c r="B294" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B295" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B296" t="s">
         <v>312</v>
@@ -4295,31 +4307,31 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B297" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B298" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B299" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B300" t="s">
         <v>223</v>
@@ -4327,23 +4339,23 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B301" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B302" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B303" t="s">
         <v>3</v>
@@ -4351,87 +4363,87 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B304" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B305" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B307" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B308" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B309" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B311" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B312" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B313" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B314" t="s">
         <v>9</v>
@@ -4439,23 +4451,23 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B317" t="s">
         <v>3</v>
@@ -4463,23 +4475,23 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B318" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B319" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B320" t="s">
         <v>3</v>
@@ -4487,7 +4499,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -4495,63 +4507,63 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B322" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B324" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B325" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B328" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B329" t="s">
         <v>9</v>
@@ -4559,31 +4571,31 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B330" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B332" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B333" t="s">
         <v>9</v>
@@ -4591,31 +4603,31 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B334" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B335" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B336" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B337" t="s">
         <v>9</v>
@@ -4623,79 +4635,79 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B339" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B340" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B341" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B342" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B343" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B344" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B345" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
@@ -4703,15 +4715,15 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
@@ -4719,15 +4731,15 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B350" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B351" t="s">
         <v>9</v>
@@ -4735,159 +4747,159 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B352" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B353" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B357" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B358" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B359" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B361" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B362" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B363" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B364" t="s">
-        <v>411</v>
+        <v>100</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B365" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B368" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B369" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B370" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B371" t="s">
         <v>9</v>
@@ -4895,47 +4907,47 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B373" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B375" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B377" t="s">
         <v>3</v>
@@ -4943,23 +4955,23 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B378" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B379" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -4967,7 +4979,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -4975,255 +4987,255 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B382" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B383" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B384" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B385" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B386" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B387" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B388" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B389" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B390" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B391" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B392" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B393" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B394" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B395" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B396" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B397" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B398" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B399" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B400" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B401" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B402" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B403" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B404" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B405" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B406" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B407" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B408" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B409" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B410" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B411" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B412" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B413" t="s">
         <v>329</v>
@@ -5231,199 +5243,208 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B414" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B415" t="s">
-        <v>411</v>
+        <v>100</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B416" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B417" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B418" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B419" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B420" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B421" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B422" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B423" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B424" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B425" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B426" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B427" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B428" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B429" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B430" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B431" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B432" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B433" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B434" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B435" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B436" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B437" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>500</v>
+      </c>
+      <c r="B438" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>